--- a/app/resources/sqldata/merchantPrices.xlsx
+++ b/app/resources/sqldata/merchantPrices.xlsx
@@ -445,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/app/resources/sqldata/merchantPrices.xlsx
+++ b/app/resources/sqldata/merchantPrices.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18012" windowHeight="6636"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18015" windowHeight="6630"/>
   </bookViews>
   <sheets>
     <sheet name="Merchants" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -443,20 +443,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.19921875" customWidth="1"/>
-    <col min="2" max="2" width="13.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.25" customWidth="1"/>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -475,8 +476,14 @@
       <c r="F1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -495,8 +502,14 @@
       <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -515,8 +528,14 @@
       <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -535,8 +554,14 @@
       <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -555,8 +580,14 @@
       <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -575,8 +606,14 @@
       <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -595,8 +632,14 @@
       <c r="F7" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -615,8 +658,14 @@
       <c r="F8" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -635,8 +684,14 @@
       <c r="F9" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <v>8</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -655,8 +710,14 @@
       <c r="F10" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>9</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -675,8 +736,14 @@
       <c r="F11" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -695,8 +762,14 @@
       <c r="F12" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <v>11</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -715,8 +788,14 @@
       <c r="F13" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <v>12</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -735,8 +814,14 @@
       <c r="F14" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <v>13</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -755,8 +840,14 @@
       <c r="F15" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <v>14</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -775,8 +866,14 @@
       <c r="F16" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>15</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -795,8 +892,14 @@
       <c r="F17" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>16</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -815,8 +918,14 @@
       <c r="F18" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>17</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -835,8 +944,14 @@
       <c r="F19" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>18</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -855,8 +970,14 @@
       <c r="F20" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>19</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -875,8 +996,14 @@
       <c r="F21" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>20</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -895,8 +1022,14 @@
       <c r="F22" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <v>21</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -915,8 +1048,14 @@
       <c r="F23" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <v>22</v>
+      </c>
+      <c r="L23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -935,8 +1074,14 @@
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -955,8 +1100,14 @@
       <c r="F25" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -976,7 +1127,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -996,7 +1147,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1016,7 +1167,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1036,7 +1187,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1056,7 +1207,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1076,7 +1227,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1096,7 +1247,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1116,7 +1267,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1136,7 +1287,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1156,7 +1307,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1176,7 +1327,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1196,7 +1347,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1216,7 +1367,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1236,7 +1387,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1256,7 +1407,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1276,7 +1427,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1296,7 +1447,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1316,7 +1467,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1336,7 +1487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1356,7 +1507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1376,7 +1527,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1396,7 +1547,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1416,7 +1567,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1436,7 +1587,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1456,7 +1607,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1476,7 +1627,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1496,7 +1647,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1516,7 +1667,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1536,7 +1687,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -1556,7 +1707,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -1576,7 +1727,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -1596,7 +1747,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1616,7 +1767,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -1636,7 +1787,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -1656,7 +1807,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -1676,7 +1827,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -1696,7 +1847,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -1716,7 +1867,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
